--- a/Unity/Assets/Config/Excel/SystemInfoConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SystemInfoConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="809"/>
+    <workbookView windowWidth="25140" windowHeight="10065" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="AchievementProto" sheetId="6" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <t>int</t>
   </si>
   <si>
-    <t>text</t>
+    <t>string</t>
   </si>
   <si>
     <t>##group</t>
@@ -2018,7 +2018,7 @@
   <dimension ref="A1:C326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>

--- a/Unity/Assets/Config/Excel/SystemInfoConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SystemInfoConfig.xlsx
@@ -44,7 +44,7 @@
     <t>int</t>
   </si>
   <si>
-    <t>string</t>
+    <t>text</t>
   </si>
   <si>
     <t>##group</t>
@@ -62,970 +62,970 @@
     <t>系统提示内容</t>
   </si>
   <si>
-    <t>完成{0}条件1</t>
-  </si>
-  <si>
-    <t>完成{0}条件2</t>
-  </si>
-  <si>
-    <t>完成{0}条件3</t>
-  </si>
-  <si>
-    <t>完成{0}条件4</t>
-  </si>
-  <si>
-    <t>完成{0}条件5</t>
-  </si>
-  <si>
-    <t>完成{0}条件6</t>
-  </si>
-  <si>
-    <t>完成{0}条件7</t>
-  </si>
-  <si>
-    <t>完成{0}条件8</t>
-  </si>
-  <si>
-    <t>完成{0}条件9</t>
-  </si>
-  <si>
-    <t>完成{0}条件10</t>
-  </si>
-  <si>
-    <t>完成{0}条件11</t>
-  </si>
-  <si>
-    <t>完成{0}条件12</t>
-  </si>
-  <si>
-    <t>完成{0}条件13</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{1} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{2} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{3} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{4} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{5} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{6} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{7} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{8} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{9} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{10} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{11} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{12} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{13} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{14} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{15} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{16} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{17} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{18} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{19} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{20} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{21} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{22} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{23} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{24} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{25} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{26} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{27} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{28} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{29} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{30} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{31} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{32} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{33} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{34} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{35} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{36} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{37} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{38} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{39} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{40} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{41} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{42} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{43} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{44} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{45} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{46} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{47} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{48} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{49} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{50} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{51} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{52} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{53} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{54} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{55} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{56} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{57} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{58} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{59} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{60} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{61} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{62} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{63} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{64} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{65} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{66} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{67} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{68} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{69} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{70} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{71} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{72} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{73} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{74} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{75} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{76} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{77} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{78} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{79} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{80} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{81} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{82} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{83} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{84} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{85} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{86} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{87} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{88} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{89} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{90} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{91} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{92} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{93} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{94} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{95} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{96} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{97} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{98} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{99} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{100} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{101} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{102} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{103} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{104} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{105} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{106} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{107} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{108} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{109} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{110} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{111} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{112} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{113} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{114} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{115} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{116} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{117} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{118} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{119} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{120} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{121} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{122} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{123} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{124} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{125} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{126} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{127} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{128} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{129} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{130} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{131} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{132} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{133} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{134} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{135} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{136} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{137} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{138} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{139} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{140} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{141} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{142} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{143} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{144} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{145} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{146} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{147} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{148} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{149} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{150} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{151} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{152} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{153} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{154} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{155} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{156} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{157} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{158} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{159} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{160} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{161} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{162} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{163} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{164} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{165} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{166} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{167} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{168} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{169} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{170} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{171} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{172} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{173} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{174} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{175} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{176} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{177} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{178} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{179} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{180} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{181} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{182} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{183} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{184} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{185} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{186} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{187} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{188} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{189} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{190} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{191} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{192} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{193} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{194} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{195} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{196} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{197} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{198} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{199} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{200} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{201} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{202} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{203} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{204} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{205} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{206} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{207} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{208} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{209} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{210} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{211} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{212} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{213} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{214} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{215} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{216} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{217} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{218} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{219} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{220} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{221} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{222} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{223} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{224} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{225} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{226} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{227} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{228} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{229} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{230} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{231} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{232} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{233} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{234} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{235} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{236} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{237} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{238} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{239} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{240} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{241} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{242} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{243} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{244} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{245} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{246} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{247} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{248} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{249} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{250} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{251} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{252} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{253} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{254} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{255} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{256} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{257} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{258} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{259} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{260} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{261} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{262} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{263} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{264} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{265} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{266} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{267} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{268} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{269} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{270} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{271} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{272} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{273} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{274} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{275} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{276} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{277} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{278} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{279} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{280} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{281} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{282} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{283} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{284} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{285} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{286} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{287} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{288} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{289} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{290} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{291} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{292} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{293} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{294} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{295} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{296} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{297} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{298} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{299} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{300} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{301} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{302} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{303} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{304} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{305} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{306} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{307} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{308} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
-  </si>
-  <si>
-    <t>测试{0} 测试{309} 有时候你想收集配置中所有的本地化text的key，DataTarget text-list 正用于此目的。text-list会收集配置表中出现的所有text数据，按从小到大排序后，输出文件。</t>
+    <t>SystemInfo_10001</t>
+  </si>
+  <si>
+    <t>SystemInfo_10002</t>
+  </si>
+  <si>
+    <t>SystemInfo_10003</t>
+  </si>
+  <si>
+    <t>SystemInfo_10004</t>
+  </si>
+  <si>
+    <t>SystemInfo_10005</t>
+  </si>
+  <si>
+    <t>SystemInfo_10006</t>
+  </si>
+  <si>
+    <t>SystemInfo_10007</t>
+  </si>
+  <si>
+    <t>SystemInfo_10008</t>
+  </si>
+  <si>
+    <t>SystemInfo_10009</t>
+  </si>
+  <si>
+    <t>SystemInfo_10010</t>
+  </si>
+  <si>
+    <t>SystemInfo_10011</t>
+  </si>
+  <si>
+    <t>SystemInfo_10012</t>
+  </si>
+  <si>
+    <t>SystemInfo_10013</t>
+  </si>
+  <si>
+    <t>SystemInfo_10014</t>
+  </si>
+  <si>
+    <t>SystemInfo_10015</t>
+  </si>
+  <si>
+    <t>SystemInfo_10016</t>
+  </si>
+  <si>
+    <t>SystemInfo_10017</t>
+  </si>
+  <si>
+    <t>SystemInfo_10018</t>
+  </si>
+  <si>
+    <t>SystemInfo_10019</t>
+  </si>
+  <si>
+    <t>SystemInfo_10020</t>
+  </si>
+  <si>
+    <t>SystemInfo_10021</t>
+  </si>
+  <si>
+    <t>SystemInfo_10022</t>
+  </si>
+  <si>
+    <t>SystemInfo_10023</t>
+  </si>
+  <si>
+    <t>SystemInfo_10024</t>
+  </si>
+  <si>
+    <t>SystemInfo_10025</t>
+  </si>
+  <si>
+    <t>SystemInfo_10026</t>
+  </si>
+  <si>
+    <t>SystemInfo_10027</t>
+  </si>
+  <si>
+    <t>SystemInfo_10028</t>
+  </si>
+  <si>
+    <t>SystemInfo_10029</t>
+  </si>
+  <si>
+    <t>SystemInfo_10030</t>
+  </si>
+  <si>
+    <t>SystemInfo_10031</t>
+  </si>
+  <si>
+    <t>SystemInfo_10032</t>
+  </si>
+  <si>
+    <t>SystemInfo_10033</t>
+  </si>
+  <si>
+    <t>SystemInfo_10034</t>
+  </si>
+  <si>
+    <t>SystemInfo_10035</t>
+  </si>
+  <si>
+    <t>SystemInfo_10036</t>
+  </si>
+  <si>
+    <t>SystemInfo_10037</t>
+  </si>
+  <si>
+    <t>SystemInfo_10038</t>
+  </si>
+  <si>
+    <t>SystemInfo_10039</t>
+  </si>
+  <si>
+    <t>SystemInfo_10040</t>
+  </si>
+  <si>
+    <t>SystemInfo_10041</t>
+  </si>
+  <si>
+    <t>SystemInfo_10042</t>
+  </si>
+  <si>
+    <t>SystemInfo_10043</t>
+  </si>
+  <si>
+    <t>SystemInfo_10044</t>
+  </si>
+  <si>
+    <t>SystemInfo_10045</t>
+  </si>
+  <si>
+    <t>SystemInfo_10046</t>
+  </si>
+  <si>
+    <t>SystemInfo_10047</t>
+  </si>
+  <si>
+    <t>SystemInfo_10048</t>
+  </si>
+  <si>
+    <t>SystemInfo_10049</t>
+  </si>
+  <si>
+    <t>SystemInfo_10050</t>
+  </si>
+  <si>
+    <t>SystemInfo_10051</t>
+  </si>
+  <si>
+    <t>SystemInfo_10052</t>
+  </si>
+  <si>
+    <t>SystemInfo_10053</t>
+  </si>
+  <si>
+    <t>SystemInfo_10054</t>
+  </si>
+  <si>
+    <t>SystemInfo_10055</t>
+  </si>
+  <si>
+    <t>SystemInfo_10056</t>
+  </si>
+  <si>
+    <t>SystemInfo_10057</t>
+  </si>
+  <si>
+    <t>SystemInfo_10058</t>
+  </si>
+  <si>
+    <t>SystemInfo_10059</t>
+  </si>
+  <si>
+    <t>SystemInfo_10060</t>
+  </si>
+  <si>
+    <t>SystemInfo_10061</t>
+  </si>
+  <si>
+    <t>SystemInfo_10062</t>
+  </si>
+  <si>
+    <t>SystemInfo_10063</t>
+  </si>
+  <si>
+    <t>SystemInfo_10064</t>
+  </si>
+  <si>
+    <t>SystemInfo_10065</t>
+  </si>
+  <si>
+    <t>SystemInfo_10066</t>
+  </si>
+  <si>
+    <t>SystemInfo_10067</t>
+  </si>
+  <si>
+    <t>SystemInfo_10068</t>
+  </si>
+  <si>
+    <t>SystemInfo_10069</t>
+  </si>
+  <si>
+    <t>SystemInfo_10070</t>
+  </si>
+  <si>
+    <t>SystemInfo_10071</t>
+  </si>
+  <si>
+    <t>SystemInfo_10072</t>
+  </si>
+  <si>
+    <t>SystemInfo_10073</t>
+  </si>
+  <si>
+    <t>SystemInfo_10074</t>
+  </si>
+  <si>
+    <t>SystemInfo_10075</t>
+  </si>
+  <si>
+    <t>SystemInfo_10076</t>
+  </si>
+  <si>
+    <t>SystemInfo_10077</t>
+  </si>
+  <si>
+    <t>SystemInfo_10078</t>
+  </si>
+  <si>
+    <t>SystemInfo_10079</t>
+  </si>
+  <si>
+    <t>SystemInfo_10080</t>
+  </si>
+  <si>
+    <t>SystemInfo_10081</t>
+  </si>
+  <si>
+    <t>SystemInfo_10082</t>
+  </si>
+  <si>
+    <t>SystemInfo_10083</t>
+  </si>
+  <si>
+    <t>SystemInfo_10084</t>
+  </si>
+  <si>
+    <t>SystemInfo_10085</t>
+  </si>
+  <si>
+    <t>SystemInfo_10086</t>
+  </si>
+  <si>
+    <t>SystemInfo_10087</t>
+  </si>
+  <si>
+    <t>SystemInfo_10088</t>
+  </si>
+  <si>
+    <t>SystemInfo_10089</t>
+  </si>
+  <si>
+    <t>SystemInfo_10090</t>
+  </si>
+  <si>
+    <t>SystemInfo_10091</t>
+  </si>
+  <si>
+    <t>SystemInfo_10092</t>
+  </si>
+  <si>
+    <t>SystemInfo_10093</t>
+  </si>
+  <si>
+    <t>SystemInfo_10094</t>
+  </si>
+  <si>
+    <t>SystemInfo_10095</t>
+  </si>
+  <si>
+    <t>SystemInfo_10096</t>
+  </si>
+  <si>
+    <t>SystemInfo_10097</t>
+  </si>
+  <si>
+    <t>SystemInfo_10098</t>
+  </si>
+  <si>
+    <t>SystemInfo_10099</t>
+  </si>
+  <si>
+    <t>SystemInfo_10100</t>
+  </si>
+  <si>
+    <t>SystemInfo_10101</t>
+  </si>
+  <si>
+    <t>SystemInfo_10102</t>
+  </si>
+  <si>
+    <t>SystemInfo_10103</t>
+  </si>
+  <si>
+    <t>SystemInfo_10104</t>
+  </si>
+  <si>
+    <t>SystemInfo_10105</t>
+  </si>
+  <si>
+    <t>SystemInfo_10106</t>
+  </si>
+  <si>
+    <t>SystemInfo_10107</t>
+  </si>
+  <si>
+    <t>SystemInfo_10108</t>
+  </si>
+  <si>
+    <t>SystemInfo_10109</t>
+  </si>
+  <si>
+    <t>SystemInfo_10110</t>
+  </si>
+  <si>
+    <t>SystemInfo_10111</t>
+  </si>
+  <si>
+    <t>SystemInfo_10112</t>
+  </si>
+  <si>
+    <t>SystemInfo_10113</t>
+  </si>
+  <si>
+    <t>SystemInfo_10114</t>
+  </si>
+  <si>
+    <t>SystemInfo_10115</t>
+  </si>
+  <si>
+    <t>SystemInfo_10116</t>
+  </si>
+  <si>
+    <t>SystemInfo_10117</t>
+  </si>
+  <si>
+    <t>SystemInfo_10118</t>
+  </si>
+  <si>
+    <t>SystemInfo_10119</t>
+  </si>
+  <si>
+    <t>SystemInfo_10120</t>
+  </si>
+  <si>
+    <t>SystemInfo_10121</t>
+  </si>
+  <si>
+    <t>SystemInfo_10122</t>
+  </si>
+  <si>
+    <t>SystemInfo_10123</t>
+  </si>
+  <si>
+    <t>SystemInfo_10124</t>
+  </si>
+  <si>
+    <t>SystemInfo_10125</t>
+  </si>
+  <si>
+    <t>SystemInfo_10126</t>
+  </si>
+  <si>
+    <t>SystemInfo_10127</t>
+  </si>
+  <si>
+    <t>SystemInfo_10128</t>
+  </si>
+  <si>
+    <t>SystemInfo_10129</t>
+  </si>
+  <si>
+    <t>SystemInfo_10130</t>
+  </si>
+  <si>
+    <t>SystemInfo_10131</t>
+  </si>
+  <si>
+    <t>SystemInfo_10132</t>
+  </si>
+  <si>
+    <t>SystemInfo_10133</t>
+  </si>
+  <si>
+    <t>SystemInfo_10134</t>
+  </si>
+  <si>
+    <t>SystemInfo_10135</t>
+  </si>
+  <si>
+    <t>SystemInfo_10136</t>
+  </si>
+  <si>
+    <t>SystemInfo_10137</t>
+  </si>
+  <si>
+    <t>SystemInfo_10138</t>
+  </si>
+  <si>
+    <t>SystemInfo_10139</t>
+  </si>
+  <si>
+    <t>SystemInfo_10140</t>
+  </si>
+  <si>
+    <t>SystemInfo_10141</t>
+  </si>
+  <si>
+    <t>SystemInfo_10142</t>
+  </si>
+  <si>
+    <t>SystemInfo_10143</t>
+  </si>
+  <si>
+    <t>SystemInfo_10144</t>
+  </si>
+  <si>
+    <t>SystemInfo_10145</t>
+  </si>
+  <si>
+    <t>SystemInfo_10146</t>
+  </si>
+  <si>
+    <t>SystemInfo_10147</t>
+  </si>
+  <si>
+    <t>SystemInfo_10148</t>
+  </si>
+  <si>
+    <t>SystemInfo_10149</t>
+  </si>
+  <si>
+    <t>SystemInfo_10150</t>
+  </si>
+  <si>
+    <t>SystemInfo_10151</t>
+  </si>
+  <si>
+    <t>SystemInfo_10152</t>
+  </si>
+  <si>
+    <t>SystemInfo_10153</t>
+  </si>
+  <si>
+    <t>SystemInfo_10154</t>
+  </si>
+  <si>
+    <t>SystemInfo_10155</t>
+  </si>
+  <si>
+    <t>SystemInfo_10156</t>
+  </si>
+  <si>
+    <t>SystemInfo_10157</t>
+  </si>
+  <si>
+    <t>SystemInfo_10158</t>
+  </si>
+  <si>
+    <t>SystemInfo_10159</t>
+  </si>
+  <si>
+    <t>SystemInfo_10160</t>
+  </si>
+  <si>
+    <t>SystemInfo_10161</t>
+  </si>
+  <si>
+    <t>SystemInfo_10162</t>
+  </si>
+  <si>
+    <t>SystemInfo_10163</t>
+  </si>
+  <si>
+    <t>SystemInfo_10164</t>
+  </si>
+  <si>
+    <t>SystemInfo_10165</t>
+  </si>
+  <si>
+    <t>SystemInfo_10166</t>
+  </si>
+  <si>
+    <t>SystemInfo_10167</t>
+  </si>
+  <si>
+    <t>SystemInfo_10168</t>
+  </si>
+  <si>
+    <t>SystemInfo_10169</t>
+  </si>
+  <si>
+    <t>SystemInfo_10170</t>
+  </si>
+  <si>
+    <t>SystemInfo_10171</t>
+  </si>
+  <si>
+    <t>SystemInfo_10172</t>
+  </si>
+  <si>
+    <t>SystemInfo_10173</t>
+  </si>
+  <si>
+    <t>SystemInfo_10174</t>
+  </si>
+  <si>
+    <t>SystemInfo_10175</t>
+  </si>
+  <si>
+    <t>SystemInfo_10176</t>
+  </si>
+  <si>
+    <t>SystemInfo_10177</t>
+  </si>
+  <si>
+    <t>SystemInfo_10178</t>
+  </si>
+  <si>
+    <t>SystemInfo_10179</t>
+  </si>
+  <si>
+    <t>SystemInfo_10180</t>
+  </si>
+  <si>
+    <t>SystemInfo_10181</t>
+  </si>
+  <si>
+    <t>SystemInfo_10182</t>
+  </si>
+  <si>
+    <t>SystemInfo_10183</t>
+  </si>
+  <si>
+    <t>SystemInfo_10184</t>
+  </si>
+  <si>
+    <t>SystemInfo_10185</t>
+  </si>
+  <si>
+    <t>SystemInfo_10186</t>
+  </si>
+  <si>
+    <t>SystemInfo_10187</t>
+  </si>
+  <si>
+    <t>SystemInfo_10188</t>
+  </si>
+  <si>
+    <t>SystemInfo_10189</t>
+  </si>
+  <si>
+    <t>SystemInfo_10190</t>
+  </si>
+  <si>
+    <t>SystemInfo_10191</t>
+  </si>
+  <si>
+    <t>SystemInfo_10192</t>
+  </si>
+  <si>
+    <t>SystemInfo_10193</t>
+  </si>
+  <si>
+    <t>SystemInfo_10194</t>
+  </si>
+  <si>
+    <t>SystemInfo_10195</t>
+  </si>
+  <si>
+    <t>SystemInfo_10196</t>
+  </si>
+  <si>
+    <t>SystemInfo_10197</t>
+  </si>
+  <si>
+    <t>SystemInfo_10198</t>
+  </si>
+  <si>
+    <t>SystemInfo_10199</t>
+  </si>
+  <si>
+    <t>SystemInfo_10200</t>
+  </si>
+  <si>
+    <t>SystemInfo_10201</t>
+  </si>
+  <si>
+    <t>SystemInfo_10202</t>
+  </si>
+  <si>
+    <t>SystemInfo_10203</t>
+  </si>
+  <si>
+    <t>SystemInfo_10204</t>
+  </si>
+  <si>
+    <t>SystemInfo_10205</t>
+  </si>
+  <si>
+    <t>SystemInfo_10206</t>
+  </si>
+  <si>
+    <t>SystemInfo_10207</t>
+  </si>
+  <si>
+    <t>SystemInfo_10208</t>
+  </si>
+  <si>
+    <t>SystemInfo_10209</t>
+  </si>
+  <si>
+    <t>SystemInfo_10210</t>
+  </si>
+  <si>
+    <t>SystemInfo_10211</t>
+  </si>
+  <si>
+    <t>SystemInfo_10212</t>
+  </si>
+  <si>
+    <t>SystemInfo_10213</t>
+  </si>
+  <si>
+    <t>SystemInfo_10214</t>
+  </si>
+  <si>
+    <t>SystemInfo_10215</t>
+  </si>
+  <si>
+    <t>SystemInfo_10216</t>
+  </si>
+  <si>
+    <t>SystemInfo_10217</t>
+  </si>
+  <si>
+    <t>SystemInfo_10218</t>
+  </si>
+  <si>
+    <t>SystemInfo_10219</t>
+  </si>
+  <si>
+    <t>SystemInfo_10220</t>
+  </si>
+  <si>
+    <t>SystemInfo_10221</t>
+  </si>
+  <si>
+    <t>SystemInfo_10222</t>
+  </si>
+  <si>
+    <t>SystemInfo_10223</t>
+  </si>
+  <si>
+    <t>SystemInfo_10224</t>
+  </si>
+  <si>
+    <t>SystemInfo_10225</t>
+  </si>
+  <si>
+    <t>SystemInfo_10226</t>
+  </si>
+  <si>
+    <t>SystemInfo_10227</t>
+  </si>
+  <si>
+    <t>SystemInfo_10228</t>
+  </si>
+  <si>
+    <t>SystemInfo_10229</t>
+  </si>
+  <si>
+    <t>SystemInfo_10230</t>
+  </si>
+  <si>
+    <t>SystemInfo_10231</t>
+  </si>
+  <si>
+    <t>SystemInfo_10232</t>
+  </si>
+  <si>
+    <t>SystemInfo_10233</t>
+  </si>
+  <si>
+    <t>SystemInfo_10234</t>
+  </si>
+  <si>
+    <t>SystemInfo_10235</t>
+  </si>
+  <si>
+    <t>SystemInfo_10236</t>
+  </si>
+  <si>
+    <t>SystemInfo_10237</t>
+  </si>
+  <si>
+    <t>SystemInfo_10238</t>
+  </si>
+  <si>
+    <t>SystemInfo_10239</t>
+  </si>
+  <si>
+    <t>SystemInfo_10240</t>
+  </si>
+  <si>
+    <t>SystemInfo_10241</t>
+  </si>
+  <si>
+    <t>SystemInfo_10242</t>
+  </si>
+  <si>
+    <t>SystemInfo_10243</t>
+  </si>
+  <si>
+    <t>SystemInfo_10244</t>
+  </si>
+  <si>
+    <t>SystemInfo_10245</t>
+  </si>
+  <si>
+    <t>SystemInfo_10246</t>
+  </si>
+  <si>
+    <t>SystemInfo_10247</t>
+  </si>
+  <si>
+    <t>SystemInfo_10248</t>
+  </si>
+  <si>
+    <t>SystemInfo_10249</t>
+  </si>
+  <si>
+    <t>SystemInfo_10250</t>
+  </si>
+  <si>
+    <t>SystemInfo_10251</t>
+  </si>
+  <si>
+    <t>SystemInfo_10252</t>
+  </si>
+  <si>
+    <t>SystemInfo_10253</t>
+  </si>
+  <si>
+    <t>SystemInfo_10254</t>
+  </si>
+  <si>
+    <t>SystemInfo_10255</t>
+  </si>
+  <si>
+    <t>SystemInfo_10256</t>
+  </si>
+  <si>
+    <t>SystemInfo_10257</t>
+  </si>
+  <si>
+    <t>SystemInfo_10258</t>
+  </si>
+  <si>
+    <t>SystemInfo_10259</t>
+  </si>
+  <si>
+    <t>SystemInfo_10260</t>
+  </si>
+  <si>
+    <t>SystemInfo_10261</t>
+  </si>
+  <si>
+    <t>SystemInfo_10262</t>
+  </si>
+  <si>
+    <t>SystemInfo_10263</t>
+  </si>
+  <si>
+    <t>SystemInfo_10264</t>
+  </si>
+  <si>
+    <t>SystemInfo_10265</t>
+  </si>
+  <si>
+    <t>SystemInfo_10266</t>
+  </si>
+  <si>
+    <t>SystemInfo_10267</t>
+  </si>
+  <si>
+    <t>SystemInfo_10268</t>
+  </si>
+  <si>
+    <t>SystemInfo_10269</t>
+  </si>
+  <si>
+    <t>SystemInfo_10270</t>
+  </si>
+  <si>
+    <t>SystemInfo_10271</t>
+  </si>
+  <si>
+    <t>SystemInfo_10272</t>
+  </si>
+  <si>
+    <t>SystemInfo_10273</t>
+  </si>
+  <si>
+    <t>SystemInfo_10274</t>
+  </si>
+  <si>
+    <t>SystemInfo_10275</t>
+  </si>
+  <si>
+    <t>SystemInfo_10276</t>
+  </si>
+  <si>
+    <t>SystemInfo_10277</t>
+  </si>
+  <si>
+    <t>SystemInfo_10278</t>
+  </si>
+  <si>
+    <t>SystemInfo_10279</t>
+  </si>
+  <si>
+    <t>SystemInfo_10280</t>
+  </si>
+  <si>
+    <t>SystemInfo_10281</t>
+  </si>
+  <si>
+    <t>SystemInfo_10282</t>
+  </si>
+  <si>
+    <t>SystemInfo_10283</t>
+  </si>
+  <si>
+    <t>SystemInfo_10284</t>
+  </si>
+  <si>
+    <t>SystemInfo_10285</t>
+  </si>
+  <si>
+    <t>SystemInfo_10286</t>
+  </si>
+  <si>
+    <t>SystemInfo_10287</t>
+  </si>
+  <si>
+    <t>SystemInfo_10288</t>
+  </si>
+  <si>
+    <t>SystemInfo_10289</t>
+  </si>
+  <si>
+    <t>SystemInfo_10290</t>
+  </si>
+  <si>
+    <t>SystemInfo_10291</t>
+  </si>
+  <si>
+    <t>SystemInfo_10292</t>
+  </si>
+  <si>
+    <t>SystemInfo_10293</t>
+  </si>
+  <si>
+    <t>SystemInfo_10294</t>
+  </si>
+  <si>
+    <t>SystemInfo_10295</t>
+  </si>
+  <si>
+    <t>SystemInfo_10296</t>
+  </si>
+  <si>
+    <t>SystemInfo_10297</t>
+  </si>
+  <si>
+    <t>SystemInfo_10298</t>
+  </si>
+  <si>
+    <t>SystemInfo_10299</t>
+  </si>
+  <si>
+    <t>SystemInfo_10300</t>
+  </si>
+  <si>
+    <t>SystemInfo_10301</t>
+  </si>
+  <si>
+    <t>SystemInfo_10302</t>
+  </si>
+  <si>
+    <t>SystemInfo_10303</t>
+  </si>
+  <si>
+    <t>SystemInfo_10304</t>
+  </si>
+  <si>
+    <t>SystemInfo_10305</t>
+  </si>
+  <si>
+    <t>SystemInfo_10306</t>
+  </si>
+  <si>
+    <t>SystemInfo_10307</t>
+  </si>
+  <si>
+    <t>SystemInfo_10308</t>
+  </si>
+  <si>
+    <t>SystemInfo_10309</t>
+  </si>
+  <si>
+    <t>SystemInfo_10310</t>
+  </si>
+  <si>
+    <t>SystemInfo_10311</t>
+  </si>
+  <si>
+    <t>SystemInfo_10312</t>
+  </si>
+  <si>
+    <t>SystemInfo_10313</t>
+  </si>
+  <si>
+    <t>SystemInfo_10314</t>
+  </si>
+  <si>
+    <t>SystemInfo_10315</t>
+  </si>
+  <si>
+    <t>SystemInfo_10316</t>
+  </si>
+  <si>
+    <t>SystemInfo_10317</t>
+  </si>
+  <si>
+    <t>SystemInfo_10318</t>
+  </si>
+  <si>
+    <t>SystemInfo_10319</t>
+  </si>
+  <si>
+    <t>SystemInfo_10320</t>
+  </si>
+  <si>
+    <t>SystemInfo_10321</t>
+  </si>
+  <si>
+    <t>SystemInfo_10322</t>
   </si>
 </sst>
 </file>
@@ -2018,14 +2018,14 @@
   <dimension ref="A1:C326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="12.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="4" customWidth="1"/>
-    <col min="3" max="3" width="161" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.875" style="4" customWidth="1"/>
     <col min="4" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
